--- a/NEW_testing_results.xlsx
+++ b/NEW_testing_results.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\Pampuch\Desktop\ITU\4th_sem\01_Natural_Language_Processing\Project\NLP-Final-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3442597-9E82-49B0-999C-BBE439411A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-375" yWindow="3225" windowWidth="14295" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Ark1"/>
+    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -100,8 +106,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,7 +171,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="dotted">
         <color rgb="FF000000"/>
@@ -178,7 +186,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -199,7 +207,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="dotted">
         <color rgb="FF000000"/>
@@ -208,13 +216,13 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="dotted">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="dotted">
         <color rgb="FF000000"/>
@@ -223,13 +231,13 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="dotted">
         <color rgb="FF000000"/>
@@ -244,7 +252,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -253,13 +261,13 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="dotted">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -268,13 +276,13 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -286,67 +294,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -357,10 +368,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -398,71 +409,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,7 +501,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -513,11 +524,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -526,13 +537,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -542,7 +553,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -551,7 +562,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -560,7 +571,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -568,10 +579,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -636,26 +647,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="B2:G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="29.25" customFormat="1" s="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -678,233 +686,233 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8">
-        <v>0.711516</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0.568163</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0.510234</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0.598666</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.550689</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="C2" s="12">
+        <v>0.71151600000000004</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.56816299999999997</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.51023399999999997</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0.59866600000000003</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0.55068899999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8">
-        <v>0.764787</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.739639</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.712329</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.904311</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.877365</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="C3" s="12">
+        <v>0.76478699999999999</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.73963900000000005</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.71232899999999999</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.90431099999999998</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.87736499999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8">
-        <v>0.752566</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="12">
+        <v>0.75256599999999996</v>
+      </c>
+      <c r="D4" s="12">
         <v>0.674234</v>
       </c>
-      <c r="E4" s="10">
-        <v>0.821267</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.794183</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.711253</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="E4" s="14">
+        <v>0.82126699999999997</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.79418299999999997</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.71125300000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="14">
         <v>0.8</v>
       </c>
-      <c r="D5" s="8">
-        <v>0.514056</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.538851</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.62333</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.48138</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="D5" s="12">
+        <v>0.51405599999999996</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.53885099999999997</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.62333000000000005</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.48137999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8">
-        <v>0.781015</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.662759</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.616639</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="C6" s="12">
+        <v>0.78101500000000001</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.66275899999999999</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.61663900000000005</v>
+      </c>
+      <c r="F6" s="12">
         <v>0.747359</v>
       </c>
-      <c r="G6" s="9">
-        <v>0.676253</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="G6" s="13">
+        <v>0.67625299999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="12">
         <v>0.804114</v>
       </c>
-      <c r="D7" s="8">
-        <v>0.682655</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.622222</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="D7" s="12">
+        <v>0.68265500000000001</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.62222200000000005</v>
+      </c>
+      <c r="F7" s="12">
         <v>0.817052</v>
       </c>
-      <c r="G7" s="9">
-        <v>0.70184</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="G7" s="13">
+        <v>0.70184000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8">
-        <v>0.666042</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.614403</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.570683</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.705069</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="C8" s="12">
+        <v>0.66604200000000002</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.61440300000000003</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.57068300000000005</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.70506899999999995</v>
+      </c>
+      <c r="G8" s="13">
         <v>0.667883</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8">
-        <v>0.77213</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.759107</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.709607</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.924439</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.920188</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="C9" s="12">
+        <v>0.77212999999999998</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.75910699999999998</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.70960699999999999</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.92443900000000001</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.92018800000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="12">
         <v>0.672593</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="14">
         <v>0.765351</v>
       </c>
-      <c r="E10" s="8">
-        <v>0.602685</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.746048</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.674406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A11" s="12" t="s">
+      <c r="E10" s="12">
+        <v>0.60268500000000003</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.74604800000000004</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.67440599999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="14">
-        <v>0.820611</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0.741859</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0.730539</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0.82494</v>
-      </c>
-      <c r="G11" s="15">
+      <c r="C11" s="16">
+        <v>0.82061099999999998</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.74185900000000005</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.73053900000000005</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.82494000000000001</v>
+      </c>
+      <c r="G11" s="17">
         <v>0.747664</v>
       </c>
     </row>
